--- a/data_craw/quarter/income_statement_quarter/bid.xlsx
+++ b/data_craw/quarter/income_statement_quarter/bid.xlsx
@@ -441,82 +441,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2019_q3</t>
+          <t>2020_q3</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2019_q4</t>
+          <t>2020_q4</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2020_q1</t>
+          <t>2021_q1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2020_q2</t>
+          <t>2021_q2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2020_q3</t>
+          <t>2021_q3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2020_q4</t>
+          <t>2021_q4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2021_q1</t>
+          <t>2022_q1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2021_q2</t>
+          <t>2022_q2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2021_q3</t>
+          <t>2022_q3</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2021_q4</t>
+          <t>2022_q4</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2022_q1</t>
+          <t>2023_q1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2022_q2</t>
+          <t>2023_q2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2022_q3</t>
+          <t>2023_q3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2022_q4</t>
+          <t>2023_q4</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2023_q1</t>
+          <t>2024_q1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2023_q2</t>
+          <t>2024_q2</t>
         </is>
       </c>
     </row>
@@ -573,53 +573,45 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1491564000000</v>
+        <v>1288201000000</v>
       </c>
       <c r="C4" t="n">
-        <v>2319536000000</v>
+        <v>4394408000000</v>
       </c>
       <c r="D4" t="n">
-        <v>842453000000</v>
+        <v>2125881000000</v>
       </c>
       <c r="E4" t="n">
-        <v>1371079000000</v>
+        <v>2406503000000</v>
       </c>
       <c r="F4" t="n">
-        <v>1288201000000</v>
+        <v>1202802000000</v>
       </c>
       <c r="G4" t="n">
-        <v>4394408000000</v>
+        <v>3199405000000</v>
       </c>
       <c r="H4" t="n">
-        <v>2125881000000</v>
+        <v>1659699000000</v>
       </c>
       <c r="I4" t="n">
-        <v>2406503000000</v>
+        <v>1702707000000</v>
       </c>
       <c r="J4" t="n">
-        <v>1202802000000</v>
+        <v>1526207000000</v>
       </c>
       <c r="K4" t="n">
-        <v>3199405000000</v>
+        <v>1635234000000</v>
       </c>
       <c r="L4" t="n">
-        <v>1659699000000</v>
+        <v>1248911000000</v>
       </c>
       <c r="M4" t="n">
-        <v>1702707000000</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1526207000000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1635234000000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1248911000000</v>
-      </c>
-      <c r="Q4" t="n">
         <v>1407098000000</v>
       </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -628,53 +620,45 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>287886000000</v>
+        <v>286459000000</v>
       </c>
       <c r="C5" t="n">
-        <v>456800000000</v>
+        <v>2119028000000</v>
       </c>
       <c r="D5" t="n">
-        <v>261068000000</v>
+        <v>321372000000</v>
       </c>
       <c r="E5" t="n">
-        <v>252824000000</v>
+        <v>245368000000</v>
       </c>
       <c r="F5" t="n">
-        <v>286459000000</v>
+        <v>408752000000</v>
       </c>
       <c r="G5" t="n">
-        <v>2119028000000</v>
+        <v>1925725000000</v>
       </c>
       <c r="H5" t="n">
-        <v>321372000000</v>
+        <v>201554000000</v>
       </c>
       <c r="I5" t="n">
-        <v>245368000000</v>
+        <v>367014000000</v>
       </c>
       <c r="J5" t="n">
-        <v>408752000000</v>
+        <v>469647000000</v>
       </c>
       <c r="K5" t="n">
-        <v>1925725000000</v>
+        <v>1273694000000</v>
       </c>
       <c r="L5" t="n">
-        <v>201554000000</v>
+        <v>272307000000</v>
       </c>
       <c r="M5" t="n">
-        <v>367014000000</v>
-      </c>
-      <c r="N5" t="n">
-        <v>469647000000</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1273694000000</v>
-      </c>
-      <c r="P5" t="n">
-        <v>272307000000</v>
-      </c>
-      <c r="Q5" t="n">
         <v>372014000000</v>
       </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -706,53 +690,45 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1874173000000</v>
+        <v>2174065000000</v>
       </c>
       <c r="C7" t="n">
-        <v>3019746000000</v>
+        <v>1695842000000</v>
       </c>
       <c r="D7" t="n">
-        <v>1444453000000</v>
+        <v>2721539000000</v>
       </c>
       <c r="E7" t="n">
-        <v>2136789000000</v>
+        <v>3788726000000</v>
       </c>
       <c r="F7" t="n">
-        <v>2174065000000</v>
+        <v>2122316000000</v>
       </c>
       <c r="G7" t="n">
-        <v>1695842000000</v>
+        <v>2295616000000</v>
       </c>
       <c r="H7" t="n">
-        <v>2721539000000</v>
+        <v>3637665000000</v>
       </c>
       <c r="I7" t="n">
-        <v>3788726000000</v>
+        <v>5264154000000</v>
       </c>
       <c r="J7" t="n">
-        <v>2122316000000</v>
+        <v>5354232000000</v>
       </c>
       <c r="K7" t="n">
-        <v>2295616000000</v>
+        <v>4261784000000</v>
       </c>
       <c r="L7" t="n">
-        <v>3637665000000</v>
+        <v>5559041000000</v>
       </c>
       <c r="M7" t="n">
-        <v>5264154000000</v>
-      </c>
-      <c r="N7" t="n">
-        <v>5354232000000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>4261784000000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5559041000000</v>
-      </c>
-      <c r="Q7" t="n">
         <v>5557162000000</v>
       </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -761,53 +737,45 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60293000000</v>
+        <v>65706000000</v>
       </c>
       <c r="C8" t="n">
-        <v>29501000000</v>
+        <v>59186000000</v>
       </c>
       <c r="D8" t="n">
-        <v>35126000000</v>
+        <v>73402000000</v>
       </c>
       <c r="E8" t="n">
-        <v>70599000000</v>
+        <v>80073000000</v>
       </c>
       <c r="F8" t="n">
-        <v>65706000000</v>
+        <v>74300000000</v>
       </c>
       <c r="G8" t="n">
-        <v>59186000000</v>
+        <v>77912000000</v>
       </c>
       <c r="H8" t="n">
-        <v>73402000000</v>
+        <v>66505000000</v>
       </c>
       <c r="I8" t="n">
-        <v>80073000000</v>
+        <v>48459000000</v>
       </c>
       <c r="J8" t="n">
-        <v>74300000000</v>
+        <v>76276000000</v>
       </c>
       <c r="K8" t="n">
-        <v>77912000000</v>
+        <v>75399000000</v>
       </c>
       <c r="L8" t="n">
-        <v>66505000000</v>
+        <v>90561000000</v>
       </c>
       <c r="M8" t="n">
-        <v>48459000000</v>
-      </c>
-      <c r="N8" t="n">
-        <v>76276000000</v>
-      </c>
-      <c r="O8" t="n">
-        <v>75399000000</v>
-      </c>
-      <c r="P8" t="n">
-        <v>90561000000</v>
-      </c>
-      <c r="Q8" t="n">
         <v>131584000000</v>
       </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
